--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2ED4C5-8B8E-4914-ABFC-EFCC94FBE688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FABAF8E-0F11-43C9-9DE8-0EEF9FA5C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
     <sheet name="Service Rates" sheetId="2" r:id="rId2"/>
+    <sheet name="Requirements and Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,98 +38,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>B160</t>
-  </si>
-  <si>
-    <t>B160-S</t>
-  </si>
-  <si>
-    <t>B240</t>
-  </si>
-  <si>
-    <t>B240-S</t>
-  </si>
-  <si>
-    <t>BE120</t>
-  </si>
-  <si>
-    <t>BE150</t>
-  </si>
-  <si>
-    <t>BE60</t>
-  </si>
-  <si>
-    <t>BE60-C</t>
-  </si>
-  <si>
     <t>BI18</t>
   </si>
   <si>
     <t>BI25</t>
   </si>
   <si>
-    <t>C2240</t>
-  </si>
-  <si>
     <t>CE60</t>
   </si>
   <si>
     <t>CE70</t>
   </si>
   <si>
-    <t>CONV</t>
-  </si>
-  <si>
-    <t>R225-G</t>
-  </si>
-  <si>
     <t>RPC-C</t>
   </si>
   <si>
     <t>RPC-DF</t>
   </si>
   <si>
-    <t>SS25-G</t>
-  </si>
-  <si>
-    <t>SS35-G</t>
-  </si>
-  <si>
-    <t>SS45-G</t>
-  </si>
-  <si>
-    <t>SS45-SG</t>
-  </si>
-  <si>
-    <t>TF10-PT</t>
-  </si>
-  <si>
-    <t>TF18-BB</t>
-  </si>
-  <si>
     <t>TF25</t>
   </si>
   <si>
-    <t>TF18-FF</t>
-  </si>
-  <si>
-    <t>TF35-LTF</t>
-  </si>
-  <si>
-    <t>TF45-ESS</t>
-  </si>
-  <si>
-    <t>TF60-ESS</t>
-  </si>
-  <si>
-    <t>UC15-F</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -135,9 +73,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>Extended Price</t>
-  </si>
-  <si>
     <t>Airfare</t>
   </si>
   <si>
@@ -156,36 +91,9 @@
     <t>Per Diem Weekday</t>
   </si>
   <si>
-    <t>Per Diem Weekend</t>
-  </si>
-  <si>
     <t>Pre/Post Trip Prep</t>
   </si>
   <si>
-    <t>Tech. Plant Time</t>
-  </si>
-  <si>
-    <t>Tech. Overtime</t>
-  </si>
-  <si>
-    <t>Tech. Double Overtime</t>
-  </si>
-  <si>
-    <t>Tech. Holdover</t>
-  </si>
-  <si>
-    <t>Eng. Plant Time</t>
-  </si>
-  <si>
-    <t>Eng. Overtime</t>
-  </si>
-  <si>
-    <t>Eng. Double Overtime</t>
-  </si>
-  <si>
-    <t>Eng. Holdover</t>
-  </si>
-  <si>
     <t>Travel Time</t>
   </si>
   <si>
@@ -244,6 +152,105 @@
   </si>
   <si>
     <t>Field Engineer Days Required</t>
+  </si>
+  <si>
+    <t>CONV (10ft.)</t>
+  </si>
+  <si>
+    <t>TF10</t>
+  </si>
+  <si>
+    <t>TF18</t>
+  </si>
+  <si>
+    <t>TF35</t>
+  </si>
+  <si>
+    <t>TF45</t>
+  </si>
+  <si>
+    <t>TF60</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>R225</t>
+  </si>
+  <si>
+    <t>SS25</t>
+  </si>
+  <si>
+    <t>SS35</t>
+  </si>
+  <si>
+    <t>SS45</t>
+  </si>
+  <si>
+    <t>Tech. Regular Time</t>
+  </si>
+  <si>
+    <t>Eng. Regular Time</t>
+  </si>
+  <si>
+    <t>Application Notes</t>
+  </si>
+  <si>
+    <t>Per Person</t>
+  </si>
+  <si>
+    <t>Per day/ per person</t>
+  </si>
+  <si>
+    <t>Per person</t>
+  </si>
+  <si>
+    <t>16hrs per person</t>
+  </si>
+  <si>
+    <t>Per hour/ per person</t>
+  </si>
+  <si>
+    <t>Per day/ per person minus one day per person</t>
+  </si>
+  <si>
+    <t>1. Requested changes to dates/times/resources or schedule may result in additional charges.</t>
+  </si>
+  <si>
+    <t>2. Requested changes outside of the scope of work may result in additional charges.</t>
+  </si>
+  <si>
+    <t>3. Services should be scheduled with at least 4 weeks' advance notice.</t>
+  </si>
+  <si>
+    <t>4. Customer is responsible for removing equipment from the truck, uncrating, and placing.</t>
+  </si>
+  <si>
+    <t>5. Customer is responsible for providing product to run during debugging and start-up. Failure to comply may result in additional costs per day.</t>
+  </si>
+  <si>
+    <t>6. Customer must have power and air prior to technician's arrival. Failure to comply may result in additional costs per day.</t>
+  </si>
+  <si>
+    <t>7. Pearson is not responsible for any delays outside of its controls (e.g. weather/airline delays/etc.).</t>
+  </si>
+  <si>
+    <t>8. Customer is responsible for providing the correct amount of operators and maintenance staff during the training sessions, return trips for training may be an additional charge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Included are set up of (3) cases per machine, any additional cases will incur added timing and costs. </t>
+  </si>
+  <si>
+    <t>10. Customer changes or delays will need to be agreed to in advance by both the customer and project manager and may be invoiced separately.</t>
+  </si>
+  <si>
+    <t>11. Overtime hours apply to weekdays over 8 hours per day as well as all day on Saturdays. Double time applies to all day on Sundays and Holidays as well as all hours worked between 10pm and 6am.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Holiday travel rates apply for travel on New Year's Day, Easter, Memorial Day, July 4th, Labor Day, Thanksgiving, the day after Thanksgiving, Christmas Eve and Christmas Day. </t>
+  </si>
+  <si>
+    <t>14. Cancellation Policy: Confirmed service that is canceled without a minimum 2 business days' notice (U.S. holidays excluded) prior to technician travel day may be subject to a cancellation fee. The cancellation fee will be $1,500 or the sum of costs incurred, whichever is greater.</t>
   </si>
 </sst>
 </file>
@@ -620,11 +627,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,18 +641,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -655,7 +660,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -666,7 +671,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -677,7 +682,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -688,7 +693,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -699,7 +704,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -710,10 +715,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -721,10 +726,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -732,7 +737,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -743,10 +748,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -754,10 +759,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -765,7 +770,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -776,10 +781,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -787,10 +792,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -798,10 +803,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -809,10 +814,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -820,10 +825,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -831,7 +836,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -842,10 +847,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -853,10 +858,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -864,10 +869,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -875,10 +880,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -886,32 +891,32 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -919,10 +924,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -930,10 +935,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -941,10 +946,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -952,10 +957,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -963,7 +968,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -974,10 +979,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -985,32 +990,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1018,10 +1023,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1029,131 +1034,38 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+      <sortCondition ref="A1:A37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1166,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1191,8 +1103,8 @@
       <c r="F4" s="2">
         <v>1000</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1208,8 +1120,8 @@
       <c r="F5" s="2">
         <v>75</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1217,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1225,8 +1137,8 @@
       <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1242,8 +1154,8 @@
       <c r="F7" s="2">
         <v>75</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1259,8 +1171,8 @@
       <c r="F8" s="2">
         <v>210</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1276,8 +1188,8 @@
       <c r="F9" s="2">
         <v>75</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,198 +1197,167 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>95</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>235</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>155</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>185</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>227</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>660</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>206</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>247</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>289</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>824</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(G4:G20)</f>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(G4:G15)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47054C17-2119-4FC8-8375-97DBD968A44B}">
+  <dimension ref="C3:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FABAF8E-0F11-43C9-9DE8-0EEF9FA5C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9BAB63-1D75-4A2A-B6CA-FD8ABA550C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -214,43 +214,49 @@
     <t>Per day/ per person minus one day per person</t>
   </si>
   <si>
-    <t>1. Requested changes to dates/times/resources or schedule may result in additional charges.</t>
-  </si>
-  <si>
-    <t>2. Requested changes outside of the scope of work may result in additional charges.</t>
-  </si>
-  <si>
-    <t>3. Services should be scheduled with at least 4 weeks' advance notice.</t>
-  </si>
-  <si>
-    <t>4. Customer is responsible for removing equipment from the truck, uncrating, and placing.</t>
-  </si>
-  <si>
-    <t>5. Customer is responsible for providing product to run during debugging and start-up. Failure to comply may result in additional costs per day.</t>
-  </si>
-  <si>
-    <t>6. Customer must have power and air prior to technician's arrival. Failure to comply may result in additional costs per day.</t>
-  </si>
-  <si>
-    <t>7. Pearson is not responsible for any delays outside of its controls (e.g. weather/airline delays/etc.).</t>
-  </si>
-  <si>
-    <t>8. Customer is responsible for providing the correct amount of operators and maintenance staff during the training sessions, return trips for training may be an additional charge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Included are set up of (3) cases per machine, any additional cases will incur added timing and costs. </t>
-  </si>
-  <si>
-    <t>10. Customer changes or delays will need to be agreed to in advance by both the customer and project manager and may be invoiced separately.</t>
-  </si>
-  <si>
-    <t>11. Overtime hours apply to weekdays over 8 hours per day as well as all day on Saturdays. Double time applies to all day on Sundays and Holidays as well as all hours worked between 10pm and 6am.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Holiday travel rates apply for travel on New Year's Day, Easter, Memorial Day, July 4th, Labor Day, Thanksgiving, the day after Thanksgiving, Christmas Eve and Christmas Day. </t>
-  </si>
-  <si>
-    <t>14. Cancellation Policy: Confirmed service that is canceled without a minimum 2 business days' notice (U.S. holidays excluded) prior to technician travel day may be subject to a cancellation fee. The cancellation fee will be $1,500 or the sum of costs incurred, whichever is greater.</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Assumptions and Requirements</t>
+  </si>
+  <si>
+    <t>Requested changes to dates/times/resources or schedule may result in additional charges.</t>
+  </si>
+  <si>
+    <t>Requested changes outside of the scope of work may result in additional charges.</t>
+  </si>
+  <si>
+    <t>Services should be scheduled with at least 4 weeks' advance notice.</t>
+  </si>
+  <si>
+    <t>Customer is responsible for removing equipment from the truck, uncrating, and placing.</t>
+  </si>
+  <si>
+    <t>Customer is responsible for providing product to run during debugging and start-up. Failure to comply may result in additional costs per day.</t>
+  </si>
+  <si>
+    <t>Customer must have power and air prior to technician's arrival. Failure to comply may result in additional costs per day.</t>
+  </si>
+  <si>
+    <t>Pearson is not responsible for any delays outside of its controls (e.g. weather/airline delays/etc.).</t>
+  </si>
+  <si>
+    <t>Customer is responsible for providing the correct amount of operators and maintenance staff during the training sessions, return trips for training may be an additional charge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Included are set up of (3) cases per machine, any additional cases will incur added timing and costs. </t>
+  </si>
+  <si>
+    <t>Customer changes or delays will need to be agreed to in advance by both the customer and project manager and may be invoiced separately.</t>
+  </si>
+  <si>
+    <t>Overtime hours apply to weekdays over 8 hours per day as well as all day on Saturdays. Double time applies to all day on Sundays and Holidays as well as all hours worked between 10pm and 6am.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday travel rates apply for travel on New Year's Day, Easter, Memorial Day, July 4th, Labor Day, Thanksgiving, the day after Thanksgiving, Christmas Eve and Christmas Day. </t>
+  </si>
+  <si>
+    <t>Cancellation Policy: Confirmed service that is canceled without a minimum 2 business days' notice (U.S. holidays excluded) prior to technician travel day may be subject to a cancellation fee. The cancellation fee will be $1,500 or the sum of costs incurred, whichever is greater.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,24 +318,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -340,6 +450,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:C37" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:C37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{67AA6558-C1C2-41BD-B35F-421CE190D7DF}" name="Technician Days Required"/>
+    <tableColumn id="3" xr3:uid="{EE0731FC-A79D-4183-8C9C-38E90B9644F8}" name="Field Engineer Days Required"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}" name="Table2" displayName="Table2" ref="B3:G17" totalsRowShown="0">
+  <autoFilter ref="B3:G17" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B7EC0BF0-D725-4852-87FA-22518E4314DC}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{05A37182-B9B2-42A4-AE1B-E2111C738DF6}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{45CF95C3-B95E-4E34-B9FC-DEEB019B8428}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{E1E77170-0639-4819-9A4B-69A70D52A4BA}" name="Quantity"/>
+    <tableColumn id="5" xr3:uid="{7C35ABDF-D041-4E6B-8EB4-B52EDD5F0C7F}" name="Unit Price" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{EF9B7630-6C9D-49AE-A092-B4B993221623}" name="Application Notes" dataDxfId="2" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5897BB54-B480-4A12-AC1F-1BF45B230B6C}" name="Table3" displayName="Table3" ref="C2:C15" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="C2:C15" xr:uid="{5897BB54-B480-4A12-AC1F-1BF45B230B6C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C83AACC0-9252-43FA-9823-F9D454ED14B1}" name="Assumptions and Requirements" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -637,13 +789,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -894,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,12 +1196,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C37" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-      <sortCondition ref="A1:A37"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1058,14 +1208,16 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1080,6 +1232,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
@@ -1279,85 +1434,99 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47054C17-2119-4FC8-8375-97DBD968A44B}">
-  <dimension ref="C3:C15"/>
+  <dimension ref="C2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="84.109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>58</v>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>59</v>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>60</v>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="7" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>65</v>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="12" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="13" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9BAB63-1D75-4A2A-B6CA-FD8ABA550C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8619FC82-3848-4105-960B-A295F742CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Requirements and Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Item</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>Cancellation Policy: Confirmed service that is canceled without a minimum 2 business days' notice (U.S. holidays excluded) prior to technician travel day may be subject to a cancellation fee. The cancellation fee will be $1,500 or the sum of costs incurred, whichever is greater.</t>
+  </si>
+  <si>
+    <t>Train Day - Tech</t>
+  </si>
+  <si>
+    <t>Train Day - Eng</t>
+  </si>
+  <si>
+    <t>Production Support Day</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:C37" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:C37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-    <sortCondition ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:C40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:C40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
@@ -777,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,10 +1041,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1043,21 +1052,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1065,18 +1074,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1087,7 +1096,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1109,10 +1118,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1120,7 +1129,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1142,10 +1151,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1153,10 +1162,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1164,7 +1173,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1186,12 +1195,45 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B37">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -1444,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47054C17-2119-4FC8-8375-97DBD968A44B}">
   <dimension ref="C2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8619FC82-3848-4105-960B-A295F742CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Item</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Production Support Day</t>
+  </si>
+  <si>
+    <t>Training Required</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:C40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:C40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
     <sortCondition ref="A1:A40"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
     <tableColumn id="2" xr3:uid="{67AA6558-C1C2-41BD-B35F-421CE190D7DF}" name="Technician Days Required"/>
     <tableColumn id="3" xr3:uid="{EE0731FC-A79D-4183-8C9C-38E90B9644F8}" name="Field Engineer Days Required"/>
+    <tableColumn id="5" xr3:uid="{B481D58B-D380-405B-8B42-454D2CB0B95C}" name="Training Required"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,18 +790,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="4" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -829,8 +839,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -851,8 +867,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -862,8 +881,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -873,8 +895,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -884,8 +909,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -895,8 +923,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -906,8 +937,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -917,8 +951,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -928,8 +965,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -939,8 +979,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -950,8 +993,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -961,8 +1007,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -972,8 +1021,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -983,8 +1035,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -994,8 +1049,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1005,8 +1063,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1016,8 +1077,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1027,8 +1091,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1038,8 +1105,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1049,8 +1119,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1060,8 +1133,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1071,8 +1147,11 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1161,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1093,8 +1175,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1104,8 +1189,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1115,8 +1203,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1126,8 +1217,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1137,8 +1231,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1148,8 +1245,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1159,8 +1259,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1273,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1181,8 +1287,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1192,8 +1301,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1203,8 +1315,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1214,8 +1329,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1225,8 +1343,11 @@
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1235,6 +1356,9 @@
       </c>
       <c r="C40">
         <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89502D76-09A8-4926-B26D-8A902CD2983B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Requirements and Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Item</t>
   </si>
@@ -265,10 +265,13 @@
     <t>Train Day - Eng</t>
   </si>
   <si>
-    <t>Production Support Day</t>
-  </si>
-  <si>
     <t>Training Required</t>
+  </si>
+  <si>
+    <t>Production Support Day - Eng</t>
+  </si>
+  <si>
+    <t>Production Support Day - Tech</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
-    <sortCondition ref="A1:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:D41" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
@@ -790,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +815,7 @@
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,13 +1114,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1125,27 +1128,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1153,10 +1156,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1167,13 +1170,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1223,10 +1226,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1265,10 +1268,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1279,10 +1282,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1321,27 +1324,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1349,15 +1352,29 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
         <v>1</v>
       </c>
     </row>

--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AED6F94-5F94-4CAA-99C9-0E2736ABCB7F}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89173F5-57CA-4AFA-9696-5057D136A757}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Requirements and Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>Item</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Travel Required</t>
+  </si>
+  <si>
+    <t>CS30-RT</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:E41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:E42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
@@ -806,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,10 +1128,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1142,10 +1145,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1159,10 +1162,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1176,10 +1179,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1193,30 +1196,30 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1227,30 +1230,30 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1278,13 +1281,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1346,10 +1349,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1397,10 +1400,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1414,10 +1417,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1465,30 +1468,30 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1499,18 +1502,35 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
         <v>1</v>
       </c>
     </row>

--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\tools\Pearson Quote Pro\Commissioning Pro\Repo\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8B4947BE-7039-4C10-958F-86FCE910287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89173F5-57CA-4AFA-9696-5057D136A757}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CCAA4-36F9-4B93-A3A1-4B575BF053D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="3165" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Item</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>CS30-RT</t>
+  </si>
+  <si>
+    <t>Tech. Overtime</t>
+  </si>
+  <si>
+    <t>Eng Overtime</t>
   </si>
 </sst>
 </file>
@@ -500,8 +506,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}" name="Table2" displayName="Table2" ref="B3:G17" totalsRowShown="0">
-  <autoFilter ref="B3:G17" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}" name="Table2" displayName="Table2" ref="B3:G19" totalsRowShown="0">
+  <autoFilter ref="B3:G19" xr:uid="{4F00B285-AF9D-4E01-9183-B5D7B0E0105C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B7EC0BF0-D725-4852-87FA-22518E4314DC}" name="Item"/>
     <tableColumn id="2" xr3:uid="{05A37182-B9B2-42A4-AE1B-E2111C738DF6}" name="Description"/>
@@ -811,16 +817,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="31.5546875" customWidth="1"/>
+    <col min="1" max="5" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -837,7 +843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -854,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -871,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -905,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -922,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -939,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -956,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -973,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -990,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1544,27 +1550,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1703,71 +1709,105 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>155</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>206</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="3">
-        <f>SUM(G4:G15)</f>
+      <c r="G19" s="3">
+        <f>SUM(G4:G17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1787,77 +1827,77 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="84.109375" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>72</v>
       </c>

--- a/assets/Tech days and quote rates.xlsx
+++ b/assets/Tech days and quote rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bthall\tools\Pearson Quote Pro\Commissioning Pro\Repo\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CCAA4-36F9-4B93-A3A1-4B575BF053D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14EC55-1DFA-4649-97DA-2EE5479CF76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="3165" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instal days by Model" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Requirements and Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instal days by Model'!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Item</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Eng Overtime</t>
+  </si>
+  <si>
+    <t>RPC-PH</t>
+  </si>
+  <si>
+    <t>RPC-OU</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:E42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
-    <sortCondition ref="A1:A42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E712DE08-B825-40F2-9FC0-5FEEF4F41363}" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
+    <sortCondition ref="A1:A44"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57C00BD4-A5D0-49E5-8AD4-B0CFA769C572}" name="Item"/>
@@ -815,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,13 +1310,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1321,13 +1327,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1389,10 +1395,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1406,7 +1412,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1423,10 +1429,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1457,10 +1463,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1491,52 +1497,86 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1552,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
